--- a/Code/Results/Cases/Case_1_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9763852638811525</v>
+        <v>1.072117533251326</v>
       </c>
       <c r="D2">
-        <v>1.024678400084416</v>
+        <v>1.056029215550515</v>
       </c>
       <c r="E2">
-        <v>0.9962725303614365</v>
+        <v>1.073147793998621</v>
       </c>
       <c r="F2">
-        <v>1.012938446766226</v>
+        <v>1.076381399202439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044700076569894</v>
+        <v>1.039395166223192</v>
       </c>
       <c r="J2">
-        <v>0.9992959825325651</v>
+        <v>1.0770386973822</v>
       </c>
       <c r="K2">
-        <v>1.035804307105345</v>
+        <v>1.058768049102491</v>
       </c>
       <c r="L2">
-        <v>1.007784040187976</v>
+        <v>1.075840424706898</v>
       </c>
       <c r="M2">
-        <v>1.024220423966147</v>
+        <v>1.079065480798364</v>
       </c>
       <c r="N2">
-        <v>1.000715097448613</v>
+        <v>1.078568215870549</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9901515481897267</v>
+        <v>1.074568496578414</v>
       </c>
       <c r="D3">
-        <v>1.030713319907469</v>
+        <v>1.05708843796575</v>
       </c>
       <c r="E3">
-        <v>1.007568467876053</v>
+        <v>1.075190035603059</v>
       </c>
       <c r="F3">
-        <v>1.022807901297827</v>
+        <v>1.078156078667016</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046774204931955</v>
+        <v>1.039662431027937</v>
       </c>
       <c r="J3">
-        <v>1.01091434062497</v>
+        <v>1.079140837055604</v>
       </c>
       <c r="K3">
-        <v>1.040967739686581</v>
+        <v>1.059640203878783</v>
       </c>
       <c r="L3">
-        <v>1.018105416063907</v>
+        <v>1.077696533195291</v>
       </c>
       <c r="M3">
-        <v>1.033157036563418</v>
+        <v>1.080655314720308</v>
       </c>
       <c r="N3">
-        <v>1.012349954942153</v>
+        <v>1.080673340823407</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9986231115347378</v>
+        <v>1.076148308348082</v>
       </c>
       <c r="D4">
-        <v>1.034444261325575</v>
+        <v>1.057770180046185</v>
       </c>
       <c r="E4">
-        <v>1.014529284323515</v>
+        <v>1.07650596298332</v>
       </c>
       <c r="F4">
-        <v>1.028895364321044</v>
+        <v>1.079299187053032</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048039313370738</v>
+        <v>1.039832611500676</v>
       </c>
       <c r="J4">
-        <v>1.018062103958491</v>
+        <v>1.080494902998806</v>
       </c>
       <c r="K4">
-        <v>1.044144014870895</v>
+        <v>1.060200308812846</v>
       </c>
       <c r="L4">
-        <v>1.024455460145838</v>
+        <v>1.078891630898569</v>
       </c>
       <c r="M4">
-        <v>1.038657120653147</v>
+        <v>1.081678368314653</v>
       </c>
       <c r="N4">
-        <v>1.019507868919467</v>
+        <v>1.082029329695562</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002090240888428</v>
+        <v>1.076811034637878</v>
       </c>
       <c r="D5">
-        <v>1.03597453299676</v>
+        <v>1.058055924334203</v>
       </c>
       <c r="E5">
-        <v>1.017379977922823</v>
+        <v>1.077057884259242</v>
       </c>
       <c r="F5">
-        <v>1.03138945624218</v>
+        <v>1.079778524011968</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048554106002147</v>
+        <v>1.039903499780003</v>
       </c>
       <c r="J5">
-        <v>1.020986742831456</v>
+        <v>1.081062711958868</v>
       </c>
       <c r="K5">
-        <v>1.045443115187762</v>
+        <v>1.060434774763707</v>
       </c>
       <c r="L5">
-        <v>1.027053613877611</v>
+        <v>1.079392660489513</v>
       </c>
       <c r="M5">
-        <v>1.04090775783642</v>
+        <v>1.082107125802797</v>
       </c>
       <c r="N5">
-        <v>1.022436661115093</v>
+        <v>1.082597945009476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002667120753055</v>
+        <v>1.07692222679356</v>
       </c>
       <c r="D6">
-        <v>1.03622932221703</v>
+        <v>1.05810385198803</v>
       </c>
       <c r="E6">
-        <v>1.017854390694955</v>
+        <v>1.077150479265982</v>
       </c>
       <c r="F6">
-        <v>1.031804578205865</v>
+        <v>1.079858935658436</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048639577706882</v>
+        <v>1.039915363922877</v>
       </c>
       <c r="J6">
-        <v>1.021473312886433</v>
+        <v>1.081157966103096</v>
       </c>
       <c r="K6">
-        <v>1.045659202177011</v>
+        <v>1.060474084216312</v>
       </c>
       <c r="L6">
-        <v>1.027485858418553</v>
+        <v>1.079476704943884</v>
       </c>
       <c r="M6">
-        <v>1.04128219595884</v>
+        <v>1.082179038536146</v>
       </c>
       <c r="N6">
-        <v>1.022923922155358</v>
+        <v>1.082693334425514</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9986697979163779</v>
+        <v>1.076157169281292</v>
       </c>
       <c r="D7">
-        <v>1.034464854871721</v>
+        <v>1.057774001537697</v>
       </c>
       <c r="E7">
-        <v>1.01456766323211</v>
+        <v>1.076513342826926</v>
       </c>
       <c r="F7">
-        <v>1.028928938426258</v>
+        <v>1.079305596758874</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048046257423414</v>
+        <v>1.039833561283096</v>
       </c>
       <c r="J7">
-        <v>1.018101488539694</v>
+        <v>1.080502495703821</v>
       </c>
       <c r="K7">
-        <v>1.044161511844242</v>
+        <v>1.060203445679538</v>
       </c>
       <c r="L7">
-        <v>1.02449044861619</v>
+        <v>1.078898331100169</v>
       </c>
       <c r="M7">
-        <v>1.03868742852697</v>
+        <v>1.081684102603015</v>
       </c>
       <c r="N7">
-        <v>1.019547309431293</v>
+        <v>1.082036933183089</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9811345704154454</v>
+        <v>1.072947140242529</v>
       </c>
       <c r="D8">
-        <v>1.026756222969715</v>
+        <v>1.056387947282798</v>
       </c>
       <c r="E8">
-        <v>1.000167276320543</v>
+        <v>1.073839145238264</v>
       </c>
       <c r="F8">
-        <v>1.016339941084704</v>
+        <v>1.076982258525851</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045417876366156</v>
+        <v>1.039486063421911</v>
       </c>
       <c r="J8">
-        <v>1.003304540433343</v>
+        <v>1.077750421264745</v>
       </c>
       <c r="K8">
-        <v>1.037585562113417</v>
+        <v>1.059063682767977</v>
       </c>
       <c r="L8">
-        <v>1.011344982218473</v>
+        <v>1.076468950903805</v>
       </c>
       <c r="M8">
-        <v>1.027303034469485</v>
+        <v>1.07960396252623</v>
       </c>
       <c r="N8">
-        <v>1.004729347961397</v>
+        <v>1.079280950482642</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9463309823276144</v>
+        <v>1.067241938691486</v>
       </c>
       <c r="D9">
-        <v>1.011648948526413</v>
+        <v>1.053917044046148</v>
       </c>
       <c r="E9">
-        <v>0.9716910983161741</v>
+        <v>1.069083009617572</v>
       </c>
       <c r="F9">
-        <v>0.9915114515881434</v>
+        <v>1.072847031352683</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040120753505837</v>
+        <v>1.038852396793692</v>
       </c>
       <c r="J9">
-        <v>0.9739324621660401</v>
+        <v>1.072852196905846</v>
       </c>
       <c r="K9">
-        <v>1.02455581518739</v>
+        <v>1.05702226091976</v>
       </c>
       <c r="L9">
-        <v>0.9852607964876701</v>
+        <v>1.072141313265671</v>
       </c>
       <c r="M9">
-        <v>1.004743767461491</v>
+        <v>1.075893915709763</v>
       </c>
       <c r="N9">
-        <v>0.9753155579739308</v>
+        <v>1.07437577008332</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9194623706172678</v>
+        <v>1.063403164169072</v>
       </c>
       <c r="D10">
-        <v>1.00020612755733</v>
+        <v>1.052249796295514</v>
       </c>
       <c r="E10">
-        <v>0.9498280959879207</v>
+        <v>1.065880743629884</v>
       </c>
       <c r="F10">
-        <v>0.9725273002177102</v>
+        <v>1.070060855631946</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036003450201579</v>
+        <v>1.038415312289912</v>
       </c>
       <c r="J10">
-        <v>0.9512806463916313</v>
+        <v>1.069551775185387</v>
       </c>
       <c r="K10">
-        <v>1.014571661304547</v>
+        <v>1.055638323530943</v>
       </c>
       <c r="L10">
-        <v>0.9651664227258792</v>
+        <v>1.069222872308254</v>
       </c>
       <c r="M10">
-        <v>0.9874109546242527</v>
+        <v>1.073389015603093</v>
       </c>
       <c r="N10">
-        <v>0.9526315740229229</v>
+        <v>1.071070661385454</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9066123506524638</v>
+        <v>1.061731983844769</v>
       </c>
       <c r="D11">
-        <v>0.9948128497250491</v>
+        <v>1.05152293558188</v>
       </c>
       <c r="E11">
-        <v>0.9394163430668823</v>
+        <v>1.064486198167048</v>
       </c>
       <c r="F11">
-        <v>0.9635155213084287</v>
+        <v>1.068847075100166</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034036411788334</v>
+        <v>1.03822250969699</v>
       </c>
       <c r="J11">
-        <v>0.9404615626129572</v>
+        <v>1.068113877120114</v>
       </c>
       <c r="K11">
-        <v>1.009833255594821</v>
+        <v>1.055033431113018</v>
       </c>
       <c r="L11">
-        <v>0.9555789616106947</v>
+        <v>1.067950814532179</v>
       </c>
       <c r="M11">
-        <v>0.9791599171680347</v>
+        <v>1.072296533029806</v>
       </c>
       <c r="N11">
-        <v>0.9417971259043166</v>
+        <v>1.069630721339998</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9016137471203535</v>
+        <v>1.061109836201102</v>
       </c>
       <c r="D12">
-        <v>0.9927298582701948</v>
+        <v>1.051252190051915</v>
       </c>
       <c r="E12">
-        <v>0.9353747150133612</v>
+        <v>1.063966968931906</v>
       </c>
       <c r="F12">
-        <v>0.9600228849120745</v>
+        <v>1.068395086588979</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033272558807961</v>
+        <v>1.038150356111141</v>
       </c>
       <c r="J12">
-        <v>0.9362561593395891</v>
+        <v>1.067578413843836</v>
       </c>
       <c r="K12">
-        <v>1.007997680869313</v>
+        <v>1.054807884339463</v>
       </c>
       <c r="L12">
-        <v>0.9518544000240942</v>
+        <v>1.067477023157876</v>
       </c>
       <c r="M12">
-        <v>0.975958265628715</v>
+        <v>1.071889527075236</v>
       </c>
       <c r="N12">
-        <v>0.9375857504759338</v>
+        <v>1.06909449764445</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9026970333623724</v>
+        <v>1.061243353005482</v>
       </c>
       <c r="D13">
-        <v>0.993180548796167</v>
+        <v>1.051310300411486</v>
       </c>
       <c r="E13">
-        <v>0.9362501899496825</v>
+        <v>1.064078401803798</v>
       </c>
       <c r="F13">
-        <v>0.9607791679416251</v>
+        <v>1.068492091610193</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03343802103901</v>
+        <v>1.038165857748304</v>
       </c>
       <c r="J13">
-        <v>0.937167382101911</v>
+        <v>1.067693334950286</v>
       </c>
       <c r="K13">
-        <v>1.008395097947525</v>
+        <v>1.054856304187061</v>
       </c>
       <c r="L13">
-        <v>0.9526613283868267</v>
+        <v>1.067578712112935</v>
       </c>
       <c r="M13">
-        <v>0.9766517201695787</v>
+        <v>1.071976886457706</v>
       </c>
       <c r="N13">
-        <v>0.9384982672790969</v>
+        <v>1.069209581952053</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9062040699283562</v>
+        <v>1.061680585714042</v>
       </c>
       <c r="D14">
-        <v>0.9946423920023049</v>
+        <v>1.051500571211429</v>
       </c>
       <c r="E14">
-        <v>0.9390860437969212</v>
+        <v>1.064443303900238</v>
       </c>
       <c r="F14">
-        <v>0.9632299683707134</v>
+        <v>1.068809736960398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033973987898322</v>
+        <v>1.038216556471434</v>
       </c>
       <c r="J14">
-        <v>0.9401179987861086</v>
+        <v>1.068069643632416</v>
       </c>
       <c r="K14">
-        <v>1.009683159750072</v>
+        <v>1.055014805039087</v>
       </c>
       <c r="L14">
-        <v>0.9552746341970431</v>
+        <v>1.06791167737478</v>
       </c>
       <c r="M14">
-        <v>0.978898234717626</v>
+        <v>1.072262914639824</v>
       </c>
       <c r="N14">
-        <v>0.9414530741774264</v>
+        <v>1.069586425035674</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9083334374927613</v>
+        <v>1.061949792610731</v>
       </c>
       <c r="D15">
-        <v>0.9955320271266082</v>
+        <v>1.051617702518011</v>
       </c>
       <c r="E15">
-        <v>0.9408090567276811</v>
+        <v>1.064667967549525</v>
       </c>
       <c r="F15">
-        <v>0.9647197922069888</v>
+        <v>1.069005297183187</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034299616064197</v>
+        <v>1.038247722141917</v>
       </c>
       <c r="J15">
-        <v>0.9419099730906851</v>
+        <v>1.068301317806929</v>
       </c>
       <c r="K15">
-        <v>1.010466298364967</v>
+        <v>1.055112347841617</v>
       </c>
       <c r="L15">
-        <v>0.9568620461876617</v>
+        <v>1.068116655863966</v>
       </c>
       <c r="M15">
-        <v>0.9802633609506155</v>
+        <v>1.072438984870876</v>
       </c>
       <c r="N15">
-        <v>0.9432475932910578</v>
+        <v>1.069818428214089</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9202862425746902</v>
+        <v>1.063513881771619</v>
       </c>
       <c r="D16">
-        <v>1.000553747833621</v>
+        <v>1.052297930371714</v>
       </c>
       <c r="E16">
-        <v>0.9504966730406466</v>
+        <v>1.065973124303844</v>
       </c>
       <c r="F16">
-        <v>0.9731066568208599</v>
+        <v>1.070141252680189</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036129684170273</v>
+        <v>1.038428032829143</v>
       </c>
       <c r="J16">
-        <v>0.9519746712102237</v>
+        <v>1.069647014839828</v>
       </c>
       <c r="K16">
-        <v>1.014876363015421</v>
+        <v>1.055678348121745</v>
       </c>
       <c r="L16">
-        <v>0.9657816898222803</v>
+        <v>1.069307115412654</v>
       </c>
       <c r="M16">
-        <v>0.9879409070087651</v>
+        <v>1.073461352190204</v>
       </c>
       <c r="N16">
-        <v>0.9533265844363632</v>
+        <v>1.071166036291127</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9274325332735373</v>
+        <v>1.064492558305266</v>
       </c>
       <c r="D17">
-        <v>1.0035779561917</v>
+        <v>1.052723287708454</v>
       </c>
       <c r="E17">
-        <v>0.9563009312000065</v>
+        <v>1.066789660326805</v>
       </c>
       <c r="F17">
-        <v>0.9781396276873066</v>
+        <v>1.070851817573709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037224957444227</v>
+        <v>1.038540184467893</v>
       </c>
       <c r="J17">
-        <v>0.9579963068025577</v>
+        <v>1.07048875077871</v>
       </c>
       <c r="K17">
-        <v>1.017523540370146</v>
+        <v>1.056031864604597</v>
       </c>
       <c r="L17">
-        <v>0.971121149239217</v>
+        <v>1.070051596527059</v>
       </c>
       <c r="M17">
-        <v>0.992542121493819</v>
+        <v>1.074100534518731</v>
       </c>
       <c r="N17">
-        <v>0.9593567714419297</v>
+        <v>1.072008967591592</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9314870631761117</v>
+        <v>1.06506254213088</v>
       </c>
       <c r="D18">
-        <v>1.005300748068116</v>
+        <v>1.052970916745681</v>
       </c>
       <c r="E18">
-        <v>0.9595979281197439</v>
+        <v>1.067265168284695</v>
       </c>
       <c r="F18">
-        <v>0.9810010591551828</v>
+        <v>1.071265571292759</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037846488971182</v>
+        <v>1.038605259266844</v>
       </c>
       <c r="J18">
-        <v>0.9614139656443891</v>
+        <v>1.070978875575351</v>
       </c>
       <c r="K18">
-        <v>1.019028606720241</v>
+        <v>1.056237521840286</v>
       </c>
       <c r="L18">
-        <v>0.9741525059259077</v>
+        <v>1.07048503632943</v>
       </c>
       <c r="M18">
-        <v>0.9951560007851622</v>
+        <v>1.074472604002821</v>
       </c>
       <c r="N18">
-        <v>0.9627792837513273</v>
+        <v>1.072499788421662</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9328513271950581</v>
+        <v>1.065256747232748</v>
       </c>
       <c r="D19">
-        <v>1.005881539591774</v>
+        <v>1.053055271815959</v>
       </c>
       <c r="E19">
-        <v>0.9607079132103619</v>
+        <v>1.067427175862316</v>
       </c>
       <c r="F19">
-        <v>0.9819648078434671</v>
+        <v>1.071406531711492</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038055616316147</v>
+        <v>1.038627390370253</v>
       </c>
       <c r="J19">
-        <v>0.9625641173907453</v>
+        <v>1.071145853329921</v>
       </c>
       <c r="K19">
-        <v>1.019535513563441</v>
+        <v>1.056307554019724</v>
       </c>
       <c r="L19">
-        <v>0.9751727891806714</v>
+        <v>1.070632692947183</v>
       </c>
       <c r="M19">
-        <v>0.9960360279410044</v>
+        <v>1.074599342984809</v>
       </c>
       <c r="N19">
-        <v>0.9639310688450878</v>
+        <v>1.072667003303796</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9266778359877714</v>
+        <v>1.064387645056851</v>
       </c>
       <c r="D20">
-        <v>1.003257831817395</v>
+        <v>1.05267770010872</v>
       </c>
       <c r="E20">
-        <v>0.9556875448068</v>
+        <v>1.066702133015527</v>
       </c>
       <c r="F20">
-        <v>0.9776074763839205</v>
+        <v>1.070775654021884</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037109270924235</v>
+        <v>1.038528187009121</v>
       </c>
       <c r="J20">
-        <v>0.9573602477042278</v>
+        <v>1.070398528243408</v>
       </c>
       <c r="K20">
-        <v>1.017243637054193</v>
+        <v>1.055993991903986</v>
       </c>
       <c r="L20">
-        <v>0.9705570526767766</v>
+        <v>1.069971804121314</v>
       </c>
       <c r="M20">
-        <v>0.9920558408367535</v>
+        <v>1.074032034592803</v>
       </c>
       <c r="N20">
-        <v>0.9587198090667229</v>
+        <v>1.071918616929941</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9051779844475121</v>
+        <v>1.061551870544376</v>
       </c>
       <c r="D21">
-        <v>0.9942142508179076</v>
+        <v>1.051444562234516</v>
       </c>
       <c r="E21">
-        <v>0.9382560831719585</v>
+        <v>1.064335883684934</v>
       </c>
       <c r="F21">
-        <v>0.9625125375598425</v>
+        <v>1.068716229954715</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033817129955823</v>
+        <v>1.038201641864216</v>
       </c>
       <c r="J21">
-        <v>0.9392546136965549</v>
+        <v>1.067958868102683</v>
       </c>
       <c r="K21">
-        <v>1.009306071348371</v>
+        <v>1.054968154433618</v>
       </c>
       <c r="L21">
-        <v>0.954509887217324</v>
+        <v>1.067813663386916</v>
       </c>
       <c r="M21">
-        <v>0.9782407137633371</v>
+        <v>1.072178720101295</v>
       </c>
       <c r="N21">
-        <v>0.9405884629820139</v>
+        <v>1.069475492191983</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8903207263106511</v>
+        <v>1.059760799375848</v>
       </c>
       <c r="D22">
-        <v>0.9880561853869623</v>
+        <v>1.050664850920086</v>
       </c>
       <c r="E22">
-        <v>0.9262622880202329</v>
+        <v>1.062840975165499</v>
       </c>
       <c r="F22">
-        <v>0.9521603037020482</v>
+        <v>1.067414797082545</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031550709816353</v>
+        <v>1.037993213547696</v>
       </c>
       <c r="J22">
-        <v>0.9267626092694384</v>
+        <v>1.066417044016402</v>
       </c>
       <c r="K22">
-        <v>1.003868023769533</v>
+        <v>1.054318169831147</v>
       </c>
       <c r="L22">
-        <v>0.943451119523122</v>
+        <v>1.066449257725875</v>
       </c>
       <c r="M22">
-        <v>0.9687430211335877</v>
+        <v>1.071006455524465</v>
       </c>
       <c r="N22">
-        <v>0.9280787184757582</v>
+        <v>1.06793147853865</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8983427235008141</v>
+        <v>1.060711065451793</v>
       </c>
       <c r="D23">
-        <v>0.9913714662077711</v>
+        <v>1.051078612122228</v>
       </c>
       <c r="E23">
-        <v>0.9327326109400729</v>
+        <v>1.063634145947922</v>
       </c>
       <c r="F23">
-        <v>0.9577414193893579</v>
+        <v>1.068105347024002</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032773227346206</v>
+        <v>1.03810400276264</v>
       </c>
       <c r="J23">
-        <v>0.933505254523008</v>
+        <v>1.067235158674532</v>
       </c>
       <c r="K23">
-        <v>1.006798990716924</v>
+        <v>1.054663218216248</v>
       </c>
       <c r="L23">
-        <v>0.9494187171058996</v>
+        <v>1.067173278287749</v>
       </c>
       <c r="M23">
-        <v>0.9738657327949819</v>
+        <v>1.071628570254778</v>
       </c>
       <c r="N23">
-        <v>0.9348309390589797</v>
+        <v>1.068750755013434</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9270191997704758</v>
+        <v>1.064435053498163</v>
       </c>
       <c r="D24">
-        <v>1.003402608508536</v>
+        <v>1.052698300649076</v>
       </c>
       <c r="E24">
-        <v>0.95596497899591</v>
+        <v>1.066741685198081</v>
       </c>
       <c r="F24">
-        <v>0.9778481601212854</v>
+        <v>1.070810071235163</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037161597821144</v>
+        <v>1.038533609198901</v>
       </c>
       <c r="J24">
-        <v>0.9576479454748794</v>
+        <v>1.070439298534404</v>
       </c>
       <c r="K24">
-        <v>1.017370232859986</v>
+        <v>1.056011106624348</v>
       </c>
       <c r="L24">
-        <v>0.9708121981621595</v>
+        <v>1.07000786135589</v>
       </c>
       <c r="M24">
-        <v>0.9922757844751259</v>
+        <v>1.074062989091749</v>
       </c>
       <c r="N24">
-        <v>0.9590079154012086</v>
+        <v>1.071959445119426</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9558823953641861</v>
+        <v>1.068722903474183</v>
       </c>
       <c r="D25">
-        <v>1.015765729862712</v>
+        <v>1.054559292245091</v>
       </c>
       <c r="E25">
-        <v>0.979490090494225</v>
+        <v>1.070317988007733</v>
       </c>
       <c r="F25">
-        <v>0.9983011781552227</v>
+        <v>1.073921138330306</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041581268304381</v>
+        <v>1.039018772984455</v>
       </c>
       <c r="J25">
-        <v>0.9819915095427437</v>
+        <v>1.074124501097587</v>
       </c>
       <c r="K25">
-        <v>1.02812413551196</v>
+        <v>1.057554010415</v>
       </c>
       <c r="L25">
-        <v>0.9924153654341596</v>
+        <v>1.073265847228013</v>
       </c>
       <c r="M25">
-        <v>1.010925923512807</v>
+        <v>1.076858493566837</v>
       </c>
       <c r="N25">
-        <v>0.9833860501222947</v>
+        <v>1.075649881092947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072117533251326</v>
+        <v>0.9763852638811509</v>
       </c>
       <c r="D2">
-        <v>1.056029215550515</v>
+        <v>1.024678400084416</v>
       </c>
       <c r="E2">
-        <v>1.073147793998621</v>
+        <v>0.9962725303614354</v>
       </c>
       <c r="F2">
-        <v>1.076381399202439</v>
+        <v>1.012938446766224</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039395166223192</v>
+        <v>1.044700076569893</v>
       </c>
       <c r="J2">
-        <v>1.0770386973822</v>
+        <v>0.9992959825325636</v>
       </c>
       <c r="K2">
-        <v>1.058768049102491</v>
+        <v>1.035804307105344</v>
       </c>
       <c r="L2">
-        <v>1.075840424706898</v>
+        <v>1.007784040187975</v>
       </c>
       <c r="M2">
-        <v>1.079065480798364</v>
+        <v>1.024220423966146</v>
       </c>
       <c r="N2">
-        <v>1.078568215870549</v>
+        <v>1.000715097448611</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.074568496578414</v>
+        <v>0.9901515481897263</v>
       </c>
       <c r="D3">
-        <v>1.05708843796575</v>
+        <v>1.030713319907469</v>
       </c>
       <c r="E3">
-        <v>1.075190035603059</v>
+        <v>1.007568467876052</v>
       </c>
       <c r="F3">
-        <v>1.078156078667016</v>
+        <v>1.022807901297826</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039662431027937</v>
+        <v>1.046774204931955</v>
       </c>
       <c r="J3">
-        <v>1.079140837055604</v>
+        <v>1.010914340624969</v>
       </c>
       <c r="K3">
-        <v>1.059640203878783</v>
+        <v>1.040967739686581</v>
       </c>
       <c r="L3">
-        <v>1.077696533195291</v>
+        <v>1.018105416063906</v>
       </c>
       <c r="M3">
-        <v>1.080655314720308</v>
+        <v>1.033157036563418</v>
       </c>
       <c r="N3">
-        <v>1.080673340823407</v>
+        <v>1.012349954942152</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.076148308348082</v>
+        <v>0.9986231115347377</v>
       </c>
       <c r="D4">
-        <v>1.057770180046185</v>
+        <v>1.034444261325575</v>
       </c>
       <c r="E4">
-        <v>1.07650596298332</v>
+        <v>1.014529284323515</v>
       </c>
       <c r="F4">
-        <v>1.079299187053032</v>
+        <v>1.028895364321044</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039832611500676</v>
+        <v>1.048039313370738</v>
       </c>
       <c r="J4">
-        <v>1.080494902998806</v>
+        <v>1.01806210395849</v>
       </c>
       <c r="K4">
-        <v>1.060200308812846</v>
+        <v>1.044144014870895</v>
       </c>
       <c r="L4">
-        <v>1.078891630898569</v>
+        <v>1.024455460145837</v>
       </c>
       <c r="M4">
-        <v>1.081678368314653</v>
+        <v>1.038657120653147</v>
       </c>
       <c r="N4">
-        <v>1.082029329695562</v>
+        <v>1.019507868919467</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.076811034637878</v>
+        <v>1.002090240888428</v>
       </c>
       <c r="D5">
-        <v>1.058055924334203</v>
+        <v>1.03597453299676</v>
       </c>
       <c r="E5">
-        <v>1.077057884259242</v>
+        <v>1.017379977922823</v>
       </c>
       <c r="F5">
-        <v>1.079778524011968</v>
+        <v>1.03138945624218</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039903499780003</v>
+        <v>1.048554106002146</v>
       </c>
       <c r="J5">
-        <v>1.081062711958868</v>
+        <v>1.020986742831456</v>
       </c>
       <c r="K5">
-        <v>1.060434774763707</v>
+        <v>1.045443115187762</v>
       </c>
       <c r="L5">
-        <v>1.079392660489513</v>
+        <v>1.02705361387761</v>
       </c>
       <c r="M5">
-        <v>1.082107125802797</v>
+        <v>1.04090775783642</v>
       </c>
       <c r="N5">
-        <v>1.082597945009476</v>
+        <v>1.022436661115093</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07692222679356</v>
+        <v>1.002667120753053</v>
       </c>
       <c r="D6">
-        <v>1.05810385198803</v>
+        <v>1.03622932221703</v>
       </c>
       <c r="E6">
-        <v>1.077150479265982</v>
+        <v>1.017854390694953</v>
       </c>
       <c r="F6">
-        <v>1.079858935658436</v>
+        <v>1.031804578205863</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039915363922877</v>
+        <v>1.048639577706881</v>
       </c>
       <c r="J6">
-        <v>1.081157966103096</v>
+        <v>1.02147331288643</v>
       </c>
       <c r="K6">
-        <v>1.060474084216312</v>
+        <v>1.04565920217701</v>
       </c>
       <c r="L6">
-        <v>1.079476704943884</v>
+        <v>1.027485858418552</v>
       </c>
       <c r="M6">
-        <v>1.082179038536146</v>
+        <v>1.041282195958839</v>
       </c>
       <c r="N6">
-        <v>1.082693334425514</v>
+        <v>1.022923922155356</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.076157169281292</v>
+        <v>0.9986697979163782</v>
       </c>
       <c r="D7">
-        <v>1.057774001537697</v>
+        <v>1.034464854871721</v>
       </c>
       <c r="E7">
-        <v>1.076513342826926</v>
+        <v>1.014567663232111</v>
       </c>
       <c r="F7">
-        <v>1.079305596758874</v>
+        <v>1.028928938426258</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039833561283096</v>
+        <v>1.048046257423414</v>
       </c>
       <c r="J7">
-        <v>1.080502495703821</v>
+        <v>1.018101488539694</v>
       </c>
       <c r="K7">
-        <v>1.060203445679538</v>
+        <v>1.044161511844242</v>
       </c>
       <c r="L7">
-        <v>1.078898331100169</v>
+        <v>1.02449044861619</v>
       </c>
       <c r="M7">
-        <v>1.081684102603015</v>
+        <v>1.03868742852697</v>
       </c>
       <c r="N7">
-        <v>1.082036933183089</v>
+        <v>1.019547309431294</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.072947140242529</v>
+        <v>0.9811345704154467</v>
       </c>
       <c r="D8">
-        <v>1.056387947282798</v>
+        <v>1.026756222969716</v>
       </c>
       <c r="E8">
-        <v>1.073839145238264</v>
+        <v>1.000167276320544</v>
       </c>
       <c r="F8">
-        <v>1.076982258525851</v>
+        <v>1.016339941084704</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039486063421911</v>
+        <v>1.045417876366157</v>
       </c>
       <c r="J8">
-        <v>1.077750421264745</v>
+        <v>1.003304540433344</v>
       </c>
       <c r="K8">
-        <v>1.059063682767977</v>
+        <v>1.037585562113418</v>
       </c>
       <c r="L8">
-        <v>1.076468950903805</v>
+        <v>1.011344982218474</v>
       </c>
       <c r="M8">
-        <v>1.07960396252623</v>
+        <v>1.027303034469486</v>
       </c>
       <c r="N8">
-        <v>1.079280950482642</v>
+        <v>1.004729347961399</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.067241938691486</v>
+        <v>0.9463309823276129</v>
       </c>
       <c r="D9">
-        <v>1.053917044046148</v>
+        <v>1.011648948526412</v>
       </c>
       <c r="E9">
-        <v>1.069083009617572</v>
+        <v>0.9716910983161724</v>
       </c>
       <c r="F9">
-        <v>1.072847031352683</v>
+        <v>0.9915114515881426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038852396793692</v>
+        <v>1.040120753505837</v>
       </c>
       <c r="J9">
-        <v>1.072852196905846</v>
+        <v>0.9739324621660387</v>
       </c>
       <c r="K9">
-        <v>1.05702226091976</v>
+        <v>1.024555815187389</v>
       </c>
       <c r="L9">
-        <v>1.072141313265671</v>
+        <v>0.9852607964876685</v>
       </c>
       <c r="M9">
-        <v>1.075893915709763</v>
+        <v>1.00474376746149</v>
       </c>
       <c r="N9">
-        <v>1.07437577008332</v>
+        <v>0.9753155579739293</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.063403164169072</v>
+        <v>0.919462370617268</v>
       </c>
       <c r="D10">
-        <v>1.052249796295514</v>
+        <v>1.00020612755733</v>
       </c>
       <c r="E10">
-        <v>1.065880743629884</v>
+        <v>0.9498280959879208</v>
       </c>
       <c r="F10">
-        <v>1.070060855631946</v>
+        <v>0.9725273002177103</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038415312289912</v>
+        <v>1.036003450201579</v>
       </c>
       <c r="J10">
-        <v>1.069551775185387</v>
+        <v>0.9512806463916318</v>
       </c>
       <c r="K10">
-        <v>1.055638323530943</v>
+        <v>1.014571661304547</v>
       </c>
       <c r="L10">
-        <v>1.069222872308254</v>
+        <v>0.9651664227258794</v>
       </c>
       <c r="M10">
-        <v>1.073389015603093</v>
+        <v>0.9874109546242528</v>
       </c>
       <c r="N10">
-        <v>1.071070661385454</v>
+        <v>0.9526315740229231</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061731983844769</v>
+        <v>0.9066123506524625</v>
       </c>
       <c r="D11">
-        <v>1.05152293558188</v>
+        <v>0.9948128497250482</v>
       </c>
       <c r="E11">
-        <v>1.064486198167048</v>
+        <v>0.9394163430668814</v>
       </c>
       <c r="F11">
-        <v>1.068847075100166</v>
+        <v>0.9635155213084277</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03822250969699</v>
+        <v>1.034036411788333</v>
       </c>
       <c r="J11">
-        <v>1.068113877120114</v>
+        <v>0.9404615626129558</v>
       </c>
       <c r="K11">
-        <v>1.055033431113018</v>
+        <v>1.00983325559482</v>
       </c>
       <c r="L11">
-        <v>1.067950814532179</v>
+        <v>0.9555789616106938</v>
       </c>
       <c r="M11">
-        <v>1.072296533029806</v>
+        <v>0.9791599171680337</v>
       </c>
       <c r="N11">
-        <v>1.069630721339998</v>
+        <v>0.9417971259043151</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061109836201102</v>
+        <v>0.9016137471203522</v>
       </c>
       <c r="D12">
-        <v>1.051252190051915</v>
+        <v>0.9927298582701944</v>
       </c>
       <c r="E12">
-        <v>1.063966968931906</v>
+        <v>0.9353747150133598</v>
       </c>
       <c r="F12">
-        <v>1.068395086588979</v>
+        <v>0.960022884912074</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038150356111141</v>
+        <v>1.033272558807961</v>
       </c>
       <c r="J12">
-        <v>1.067578413843836</v>
+        <v>0.9362561593395879</v>
       </c>
       <c r="K12">
-        <v>1.054807884339463</v>
+        <v>1.007997680869313</v>
       </c>
       <c r="L12">
-        <v>1.067477023157876</v>
+        <v>0.9518544000240931</v>
       </c>
       <c r="M12">
-        <v>1.071889527075236</v>
+        <v>0.9759582656287146</v>
       </c>
       <c r="N12">
-        <v>1.06909449764445</v>
+        <v>0.9375857504759327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061243353005482</v>
+        <v>0.9026970333623731</v>
       </c>
       <c r="D13">
-        <v>1.051310300411486</v>
+        <v>0.9931805487961669</v>
       </c>
       <c r="E13">
-        <v>1.064078401803798</v>
+        <v>0.936250189949683</v>
       </c>
       <c r="F13">
-        <v>1.068492091610193</v>
+        <v>0.9607791679416253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038165857748304</v>
+        <v>1.033438021039009</v>
       </c>
       <c r="J13">
-        <v>1.067693334950286</v>
+        <v>0.9371673821019114</v>
       </c>
       <c r="K13">
-        <v>1.054856304187061</v>
+        <v>1.008395097947525</v>
       </c>
       <c r="L13">
-        <v>1.067578712112935</v>
+        <v>0.9526613283868272</v>
       </c>
       <c r="M13">
-        <v>1.071976886457706</v>
+        <v>0.9766517201695787</v>
       </c>
       <c r="N13">
-        <v>1.069209581952053</v>
+        <v>0.9384982672790974</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061680585714042</v>
+        <v>0.906204069928358</v>
       </c>
       <c r="D14">
-        <v>1.051500571211429</v>
+        <v>0.9946423920023059</v>
       </c>
       <c r="E14">
-        <v>1.064443303900238</v>
+        <v>0.9390860437969228</v>
       </c>
       <c r="F14">
-        <v>1.068809736960398</v>
+        <v>0.9632299683707151</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038216556471434</v>
+        <v>1.033973987898322</v>
       </c>
       <c r="J14">
-        <v>1.068069643632416</v>
+        <v>0.9401179987861101</v>
       </c>
       <c r="K14">
-        <v>1.055014805039087</v>
+        <v>1.009683159750073</v>
       </c>
       <c r="L14">
-        <v>1.06791167737478</v>
+        <v>0.9552746341970445</v>
       </c>
       <c r="M14">
-        <v>1.072262914639824</v>
+        <v>0.9788982347176277</v>
       </c>
       <c r="N14">
-        <v>1.069586425035674</v>
+        <v>0.9414530741774282</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061949792610731</v>
+        <v>0.9083334374927614</v>
       </c>
       <c r="D15">
-        <v>1.051617702518011</v>
+        <v>0.9955320271266084</v>
       </c>
       <c r="E15">
-        <v>1.064667967549525</v>
+        <v>0.9408090567276811</v>
       </c>
       <c r="F15">
-        <v>1.069005297183187</v>
+        <v>0.9647197922069889</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038247722141917</v>
+        <v>1.034299616064197</v>
       </c>
       <c r="J15">
-        <v>1.068301317806929</v>
+        <v>0.941909973090685</v>
       </c>
       <c r="K15">
-        <v>1.055112347841617</v>
+        <v>1.010466298364968</v>
       </c>
       <c r="L15">
-        <v>1.068116655863966</v>
+        <v>0.9568620461876616</v>
       </c>
       <c r="M15">
-        <v>1.072438984870876</v>
+        <v>0.9802633609506154</v>
       </c>
       <c r="N15">
-        <v>1.069818428214089</v>
+        <v>0.9432475932910577</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.063513881771619</v>
+        <v>0.9202862425746923</v>
       </c>
       <c r="D16">
-        <v>1.052297930371714</v>
+        <v>1.000553747833622</v>
       </c>
       <c r="E16">
-        <v>1.065973124303844</v>
+        <v>0.9504966730406484</v>
       </c>
       <c r="F16">
-        <v>1.070141252680189</v>
+        <v>0.9731066568208614</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038428032829143</v>
+        <v>1.036129684170273</v>
       </c>
       <c r="J16">
-        <v>1.069647014839828</v>
+        <v>0.9519746712102255</v>
       </c>
       <c r="K16">
-        <v>1.055678348121745</v>
+        <v>1.014876363015422</v>
       </c>
       <c r="L16">
-        <v>1.069307115412654</v>
+        <v>0.9657816898222819</v>
       </c>
       <c r="M16">
-        <v>1.073461352190204</v>
+        <v>0.9879409070087666</v>
       </c>
       <c r="N16">
-        <v>1.071166036291127</v>
+        <v>0.9533265844363651</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064492558305266</v>
+        <v>0.9274325332735376</v>
       </c>
       <c r="D17">
-        <v>1.052723287708454</v>
+        <v>1.0035779561917</v>
       </c>
       <c r="E17">
-        <v>1.066789660326805</v>
+        <v>0.9563009312000067</v>
       </c>
       <c r="F17">
-        <v>1.070851817573709</v>
+        <v>0.9781396276873064</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038540184467893</v>
+        <v>1.037224957444227</v>
       </c>
       <c r="J17">
-        <v>1.07048875077871</v>
+        <v>0.957996306802558</v>
       </c>
       <c r="K17">
-        <v>1.056031864604597</v>
+        <v>1.017523540370145</v>
       </c>
       <c r="L17">
-        <v>1.070051596527059</v>
+        <v>0.9711211492392171</v>
       </c>
       <c r="M17">
-        <v>1.074100534518731</v>
+        <v>0.992542121493819</v>
       </c>
       <c r="N17">
-        <v>1.072008967591592</v>
+        <v>0.9593567714419295</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.06506254213088</v>
+        <v>0.93148706317611</v>
       </c>
       <c r="D18">
-        <v>1.052970916745681</v>
+        <v>1.005300748068115</v>
       </c>
       <c r="E18">
-        <v>1.067265168284695</v>
+        <v>0.9595979281197423</v>
       </c>
       <c r="F18">
-        <v>1.071265571292759</v>
+        <v>0.981001059155181</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038605259266844</v>
+        <v>1.037846488971182</v>
       </c>
       <c r="J18">
-        <v>1.070978875575351</v>
+        <v>0.9614139656443874</v>
       </c>
       <c r="K18">
-        <v>1.056237521840286</v>
+        <v>1.01902860672024</v>
       </c>
       <c r="L18">
-        <v>1.07048503632943</v>
+        <v>0.9741525059259062</v>
       </c>
       <c r="M18">
-        <v>1.074472604002821</v>
+        <v>0.995156000785161</v>
       </c>
       <c r="N18">
-        <v>1.072499788421662</v>
+        <v>0.9627792837513257</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065256747232748</v>
+        <v>0.9328513271950569</v>
       </c>
       <c r="D19">
-        <v>1.053055271815959</v>
+        <v>1.005881539591773</v>
       </c>
       <c r="E19">
-        <v>1.067427175862316</v>
+        <v>0.9607079132103605</v>
       </c>
       <c r="F19">
-        <v>1.071406531711492</v>
+        <v>0.9819648078434658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038627390370253</v>
+        <v>1.038055616316146</v>
       </c>
       <c r="J19">
-        <v>1.071145853329921</v>
+        <v>0.9625641173907442</v>
       </c>
       <c r="K19">
-        <v>1.056307554019724</v>
+        <v>1.01953551356344</v>
       </c>
       <c r="L19">
-        <v>1.070632692947183</v>
+        <v>0.9751727891806699</v>
       </c>
       <c r="M19">
-        <v>1.074599342984809</v>
+        <v>0.9960360279410034</v>
       </c>
       <c r="N19">
-        <v>1.072667003303796</v>
+        <v>0.9639310688450867</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064387645056851</v>
+        <v>0.9266778359877694</v>
       </c>
       <c r="D20">
-        <v>1.05267770010872</v>
+        <v>1.003257831817394</v>
       </c>
       <c r="E20">
-        <v>1.066702133015527</v>
+        <v>0.9556875448067983</v>
       </c>
       <c r="F20">
-        <v>1.070775654021884</v>
+        <v>0.977607476383919</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038528187009121</v>
+        <v>1.037109270924234</v>
       </c>
       <c r="J20">
-        <v>1.070398528243408</v>
+        <v>0.957360247704226</v>
       </c>
       <c r="K20">
-        <v>1.055993991903986</v>
+        <v>1.017243637054192</v>
       </c>
       <c r="L20">
-        <v>1.069971804121314</v>
+        <v>0.9705570526767751</v>
       </c>
       <c r="M20">
-        <v>1.074032034592803</v>
+        <v>0.9920558408367519</v>
       </c>
       <c r="N20">
-        <v>1.071918616929941</v>
+        <v>0.9587198090667213</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061551870544376</v>
+        <v>0.9051779844475139</v>
       </c>
       <c r="D21">
-        <v>1.051444562234516</v>
+        <v>0.9942142508179084</v>
       </c>
       <c r="E21">
-        <v>1.064335883684934</v>
+        <v>0.9382560831719602</v>
       </c>
       <c r="F21">
-        <v>1.068716229954715</v>
+        <v>0.9625125375598435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038201641864216</v>
+        <v>1.033817129955824</v>
       </c>
       <c r="J21">
-        <v>1.067958868102683</v>
+        <v>0.9392546136965566</v>
       </c>
       <c r="K21">
-        <v>1.054968154433618</v>
+        <v>1.009306071348371</v>
       </c>
       <c r="L21">
-        <v>1.067813663386916</v>
+        <v>0.954509887217326</v>
       </c>
       <c r="M21">
-        <v>1.072178720101295</v>
+        <v>0.9782407137633384</v>
       </c>
       <c r="N21">
-        <v>1.069475492191983</v>
+        <v>0.9405884629820157</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.059760799375848</v>
+        <v>0.8903207263106523</v>
       </c>
       <c r="D22">
-        <v>1.050664850920086</v>
+        <v>0.988056185386963</v>
       </c>
       <c r="E22">
-        <v>1.062840975165499</v>
+        <v>0.9262622880202339</v>
       </c>
       <c r="F22">
-        <v>1.067414797082545</v>
+        <v>0.9521603037020491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037993213547696</v>
+        <v>1.031550709816353</v>
       </c>
       <c r="J22">
-        <v>1.066417044016402</v>
+        <v>0.9267626092694395</v>
       </c>
       <c r="K22">
-        <v>1.054318169831147</v>
+        <v>1.003868023769534</v>
       </c>
       <c r="L22">
-        <v>1.066449257725875</v>
+        <v>0.943451119523123</v>
       </c>
       <c r="M22">
-        <v>1.071006455524465</v>
+        <v>0.9687430211335887</v>
       </c>
       <c r="N22">
-        <v>1.06793147853865</v>
+        <v>0.9280787184757592</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.060711065451793</v>
+        <v>0.8983427235008153</v>
       </c>
       <c r="D23">
-        <v>1.051078612122228</v>
+        <v>0.9913714662077718</v>
       </c>
       <c r="E23">
-        <v>1.063634145947922</v>
+        <v>0.9327326109400739</v>
       </c>
       <c r="F23">
-        <v>1.068105347024002</v>
+        <v>0.9577414193893586</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03810400276264</v>
+        <v>1.032773227346206</v>
       </c>
       <c r="J23">
-        <v>1.067235158674532</v>
+        <v>0.9335052545230093</v>
       </c>
       <c r="K23">
-        <v>1.054663218216248</v>
+        <v>1.006798990716924</v>
       </c>
       <c r="L23">
-        <v>1.067173278287749</v>
+        <v>0.9494187171059008</v>
       </c>
       <c r="M23">
-        <v>1.071628570254778</v>
+        <v>0.9738657327949826</v>
       </c>
       <c r="N23">
-        <v>1.068750755013434</v>
+        <v>0.9348309390589808</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064435053498163</v>
+        <v>0.9270191997704752</v>
       </c>
       <c r="D24">
-        <v>1.052698300649076</v>
+        <v>1.003402608508536</v>
       </c>
       <c r="E24">
-        <v>1.066741685198081</v>
+        <v>0.9559649789959095</v>
       </c>
       <c r="F24">
-        <v>1.070810071235163</v>
+        <v>0.9778481601212851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038533609198901</v>
+        <v>1.037161597821144</v>
       </c>
       <c r="J24">
-        <v>1.070439298534404</v>
+        <v>0.9576479454748787</v>
       </c>
       <c r="K24">
-        <v>1.056011106624348</v>
+        <v>1.017370232859985</v>
       </c>
       <c r="L24">
-        <v>1.07000786135589</v>
+        <v>0.9708121981621589</v>
       </c>
       <c r="M24">
-        <v>1.074062989091749</v>
+        <v>0.9922757844751253</v>
       </c>
       <c r="N24">
-        <v>1.071959445119426</v>
+        <v>0.9590079154012078</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.068722903474183</v>
+        <v>0.9558823953641868</v>
       </c>
       <c r="D25">
-        <v>1.054559292245091</v>
+        <v>1.015765729862713</v>
       </c>
       <c r="E25">
-        <v>1.070317988007733</v>
+        <v>0.9794900904942258</v>
       </c>
       <c r="F25">
-        <v>1.073921138330306</v>
+        <v>0.9983011781552235</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039018772984455</v>
+        <v>1.041581268304381</v>
       </c>
       <c r="J25">
-        <v>1.074124501097587</v>
+        <v>0.9819915095427445</v>
       </c>
       <c r="K25">
-        <v>1.057554010415</v>
+        <v>1.028124135511961</v>
       </c>
       <c r="L25">
-        <v>1.073265847228013</v>
+        <v>0.9924153654341603</v>
       </c>
       <c r="M25">
-        <v>1.076858493566837</v>
+        <v>1.010925923512808</v>
       </c>
       <c r="N25">
-        <v>1.075649881092947</v>
+        <v>0.9833860501222961</v>
       </c>
     </row>
   </sheetData>
